--- a/documents/projectmanagement/2_Definition/Projektkosten_PAMS_Zentral.xlsx
+++ b/documents/projectmanagement/2_Definition/Projektkosten_PAMS_Zentral.xlsx
@@ -156,9 +156,6 @@
     <t>Gesamtkosten Projekt</t>
   </si>
   <si>
-    <t xml:space="preserve">25h, Logik, Ausgabe, Eingabe, Datenbankzugriff, Login(Verschlüsselung), </t>
-  </si>
-  <si>
     <t>8h, DB-Design, Erstellung</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>32h, Machbarkeit, Umfeld, Risiko, Statusberichte, Kommunikationsrichtlinien, Dokumentationsrichtlinien</t>
+  </si>
+  <si>
+    <t>25h, Logik, Ausgabe, Eingabe, Datenbankzugriff, Login(Verschlüsselung), Frontend</t>
   </si>
 </sst>
 </file>
@@ -286,6 +286,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -294,12 +300,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -613,8 +613,8 @@
   </sheetPr>
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,18 +625,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -717,11 +717,11 @@
       <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -756,11 +756,11 @@
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -777,40 +777,40 @@
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="14">
         <v>681.6</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="14">
         <v>4368</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="14">
         <v>2238</v>
       </c>
       <c r="C19" t="s">
@@ -821,11 +821,11 @@
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="14">
         <v>3417.6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -851,11 +851,11 @@
       <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
@@ -901,11 +901,11 @@
       <c r="C27" s="10"/>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
